--- a/Word/log/log_201608040203_huayongxiang.xlsx
+++ b/Word/log/log_201608040203_huayongxiang.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
   <si>
     <t>日期</t>
   </si>
@@ -264,6 +264,19 @@
   </si>
   <si>
     <t>不能实现</t>
+  </si>
+  <si>
+    <t>22:00-24:00</t>
+  </si>
+  <si>
+    <t>1.了解重构项目，以及负责模块等
+2.了解项目流程，为之后的具体实现做好准备</t>
+  </si>
+  <si>
+    <t>了解</t>
+  </si>
+  <si>
+    <t>实现模块实体类接口等</t>
   </si>
 </sst>
 </file>
@@ -286,14 +299,106 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,6 +406,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,29 +434,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -344,90 +441,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -438,181 +451,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,11 +647,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,32 +726,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,10 +748,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -747,7 +760,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -756,130 +769,133 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1234,14 +1250,14 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="17.5454545454545" customWidth="1"/>
     <col min="2" max="2" width="15.7272727272727" customWidth="1"/>
-    <col min="3" max="3" width="39.9090909090909" customWidth="1"/>
+    <col min="3" max="3" width="45.0909090909091" customWidth="1"/>
     <col min="4" max="4" width="45" customWidth="1"/>
     <col min="5" max="5" width="29.3636363636364" customWidth="1"/>
   </cols>
@@ -1684,20 +1700,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1">
-        <v>43286</v>
-      </c>
-      <c r="B28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+    <row r="28" spans="1:1">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" ht="42" spans="1:5">
       <c r="A29" s="1">
-        <v>43287</v>
+        <v>43315</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>82</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Word/log/log_201608040203_huayongxiang.xlsx
+++ b/Word/log/log_201608040203_huayongxiang.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
   <si>
     <t>日期</t>
   </si>
@@ -277,6 +277,13 @@
   </si>
   <si>
     <t>实现模块实体类接口等</t>
+  </si>
+  <si>
+    <t>1.添加项目的dao层实体类
+2.项目的dao成测试类</t>
+  </si>
+  <si>
+    <t>测试成功继续学习</t>
   </si>
 </sst>
 </file>
@@ -286,8 +293,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -299,7 +306,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,6 +351,91 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,121 +448,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -451,187 +458,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,54 +649,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -704,6 +663,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,8 +694,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,16 +710,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -760,133 +767,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1247,10 +1254,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1703,14 +1710,14 @@
     <row r="28" spans="1:1">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" ht="42" spans="1:5">
+    <row r="29" ht="28" spans="1:5">
       <c r="A29" s="1">
         <v>43315</v>
       </c>
       <c r="B29" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D29" t="s">
@@ -1718,6 +1725,23 @@
       </c>
       <c r="E29" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="30" ht="28" spans="1:5">
+      <c r="A30" s="1">
+        <v>43317</v>
+      </c>
+      <c r="B30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Word/log/log_201608040203_huayongxiang.xlsx
+++ b/Word/log/log_201608040203_huayongxiang.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92">
   <si>
     <t>日期</t>
   </si>
@@ -284,6 +284,18 @@
   </si>
   <si>
     <t>测试成功继续学习</t>
+  </si>
+  <si>
+    <t>21:00-23:00</t>
+  </si>
+  <si>
+    <t>添加dao层测试类</t>
+  </si>
+  <si>
+    <t>测试成功</t>
+  </si>
+  <si>
+    <t>学习spring注解</t>
   </si>
 </sst>
 </file>
@@ -291,10 +303,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -306,7 +318,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,6 +359,14 @@
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -327,11 +378,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -342,15 +423,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,46 +448,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,38 +460,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -458,49 +470,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,133 +614,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,17 +664,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,6 +684,24 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,15 +723,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -711,11 +732,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,175 +761,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1254,10 +1263,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1734,7 +1743,7 @@
       <c r="B30" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>86</v>
       </c>
       <c r="D30" t="s">
@@ -1742,6 +1751,23 @@
       </c>
       <c r="E30" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>43322</v>
+      </c>
+      <c r="B31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Word/log/log_201608040203_huayongxiang.xlsx
+++ b/Word/log/log_201608040203_huayongxiang.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95">
   <si>
     <t>日期</t>
   </si>
@@ -296,6 +296,15 @@
   </si>
   <si>
     <t>学习spring注解</t>
+  </si>
+  <si>
+    <t>21:30-23:00</t>
+  </si>
+  <si>
+    <t>添加数据的插入删除</t>
+  </si>
+  <si>
+    <t>测试不成功</t>
   </si>
 </sst>
 </file>
@@ -303,10 +312,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -317,8 +326,130 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,134 +463,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -470,6 +479,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -482,175 +641,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,21 +670,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -707,6 +701,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -717,17 +726,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -747,16 +745,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -767,10 +776,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -779,133 +788,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1263,10 +1272,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1768,6 +1777,23 @@
       </c>
       <c r="E31" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>43325</v>
+      </c>
+      <c r="B32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Word/log/log_201608040203_huayongxiang.xlsx
+++ b/Word/log/log_201608040203_huayongxiang.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98">
   <si>
     <t>日期</t>
   </si>
@@ -305,6 +305,17 @@
   </si>
   <si>
     <t>测试不成功</t>
+  </si>
+  <si>
+    <t>10:00-11:00</t>
+  </si>
+  <si>
+    <t>1.修改dao层测试
+2.添加service层测试</t>
+  </si>
+  <si>
+    <t>1.dao层测试成功
+2.service测试不成功</t>
   </si>
 </sst>
 </file>
@@ -312,10 +323,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -323,6 +334,81 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -334,17 +420,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -356,23 +444,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,57 +458,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -454,21 +480,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -485,25 +496,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,19 +634,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,121 +670,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,24 +689,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,6 +723,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -747,6 +755,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -755,31 +781,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -788,139 +799,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1272,10 +1286,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1794,6 +1808,23 @@
       </c>
       <c r="E32" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="33" ht="28" spans="1:5">
+      <c r="A33" s="1">
+        <v>43329</v>
+      </c>
+      <c r="B33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Word/log/log_201608040203_huayongxiang.xlsx
+++ b/Word/log/log_201608040203_huayongxiang.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101">
   <si>
     <t>日期</t>
   </si>
@@ -316,6 +316,15 @@
   <si>
     <t>1.dao层测试成功
 2.service测试不成功</t>
+  </si>
+  <si>
+    <t>19:00-20:00</t>
+  </si>
+  <si>
+    <t>添加service测试</t>
+  </si>
+  <si>
+    <t>添加成功</t>
   </si>
 </sst>
 </file>
@@ -323,10 +332,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -334,6 +343,89 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -346,67 +438,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -420,19 +475,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -443,43 +489,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -490,187 +499,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,8 +696,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,6 +712,39 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -723,17 +765,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -752,45 +790,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -799,142 +808,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1286,10 +1292,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1817,13 +1823,30 @@
       <c r="B33" t="s">
         <v>95</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="2" t="s">
         <v>97</v>
       </c>
       <c r="E33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>43330</v>
+      </c>
+      <c r="B34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" t="s">
         <v>66</v>
       </c>
     </row>
